--- a/samples/TD22082019.xlsx
+++ b/samples/TD22082019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chelsea.yeung\China Life Franklin Asset Management\CLAMC - Documents\Settlement\China Life Franklin Global Fixed Income opportunities SP\Trade\Bond\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\tradefeed_cmbhk\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{A3FF32C5-B728-4C7F-9179-7635BCEA915C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E1FF2F12-97F1-4B6A-BB60-67DF61C7DAA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673C110-B655-4BE4-A63B-3EDDD8575EE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2880" windowWidth="24525" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="495" windowWidth="23970" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t9208531" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Fund</t>
   </si>
@@ -153,6 +153,9 @@
   <si>
     <t xml:space="preserve"> ON 08/22/19</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principal</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1138,22 +1141,23 @@
     <col min="11" max="16" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="11.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,13 +1213,16 @@
         <v>17</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,14 +1277,18 @@
       <c r="R5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
+        <f>U5-T5</f>
+        <v>1018750</v>
+      </c>
+      <c r="T5" s="1">
         <v>42700</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>1061450</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1332,14 +1343,18 @@
       <c r="R6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S7" si="0">U6-T6</f>
+        <v>936250</v>
+      </c>
+      <c r="T6" s="1">
         <v>10069.44</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>946319.44</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1394,15 +1409,19 @@
       <c r="R7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>1080000</v>
+      </c>
+      <c r="T7" s="1">
         <v>33111.11</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>1113111.1100000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="S9" s="3"/>
+    <row r="9" spans="1:21">
+      <c r="T9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
